--- a/xlsx/WNBA_intext.xlsx
+++ b/xlsx/WNBA_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
   <si>
     <t>WNBA</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%83%E7%90%83</t>
   </si>
   <si>
-    <t>籃球</t>
+    <t>篮球</t>
   </si>
   <si>
     <t>政策_政策_加州_WNBA</t>
@@ -35,19 +35,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E7%81%AB%E8%8A%B1</t>
   </si>
   <si>
-    <t>洛杉磯火花</t>
+    <t>洛杉矶火花</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%96%AF%E9%A0%93%E5%BD%97%E6%98%9F</t>
   </si>
   <si>
-    <t>休斯頓彗星</t>
+    <t>休斯顿彗星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/American_Broadcasting_Company</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%A4%AA%E9%99%BD</t>
   </si>
   <si>
-    <t>康乃狄克太陽</t>
+    <t>康乃狄克太阳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A9%E7%A9%BA</t>
@@ -83,43 +83,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7%E7%BE%8E%E5%A4%A2</t>
   </si>
   <si>
-    <t>亞特蘭大美夢</t>
+    <t>亚特兰大美梦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E%E6%B0%B4%E6%98%9F</t>
   </si>
   <si>
-    <t>鳳凰城水星</t>
+    <t>凤凰城水星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96%E9%A2%A8%E6%9A%B4</t>
   </si>
   <si>
-    <t>西雅圖風暴</t>
+    <t>西雅图风暴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%A5%9E%E7%A7%98</t>
   </si>
   <si>
-    <t>華盛頓神秘</t>
+    <t>华盛顿神秘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%83%A8%E8%81%AF%E7%9B%9F_(WNBA)</t>
   </si>
   <si>
-    <t>東部聯盟 (WNBA)</t>
+    <t>东部联盟 (WNBA)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%83%A8%E8%81%AF%E7%9B%9F_(WNBA)</t>
   </si>
   <si>
-    <t>西部聯盟 (WNBA)</t>
+    <t>西部联盟 (WNBA)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>2008年夏季奧林匹克運動會</t>
+    <t>2008年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WNBA%E5%85%A8%E6%98%8E%E6%98%9F%E8%B5%9B</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%B1%83%E7%90%83%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>國際籃球總會</t>
+    <t>国际篮球总会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%AE%89%E4%B8%9C%E5%B0%BC%E5%A5%A5</t>
@@ -149,61 +149,61 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%AB%E5%B8%AB</t>
   </si>
   <si>
-    <t>華盛頓巫師</t>
+    <t>华盛顿巫师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%85%8B%E6%8B%89%E9%96%80%E6%89%98%E5%B8%9D%E7%8E%8B</t>
   </si>
   <si>
-    <t>薩克拉門托帝王</t>
+    <t>萨克拉门托帝王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E%E5%A4%AA%E9%99%BD</t>
   </si>
   <si>
-    <t>鳳凰城太陽</t>
+    <t>凤凰城太阳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E7%81%B0%E7%8B%BC</t>
   </si>
   <si>
-    <t>明尼蘇達灰狼</t>
+    <t>明尼苏达灰狼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>休士頓火箭</t>
+    <t>休士顿火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9%E9%BB%83%E8%9C%82</t>
   </si>
   <si>
-    <t>夏洛特黃蜂</t>
+    <t>夏洛特黄蜂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E5%88%A9%E6%B5%A6%E9%AB%94%E8%82%B2%E9%A4%A8</t>
   </si>
   <si>
-    <t>飛利浦體育館</t>
+    <t>飞利浦体育馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E7%8B%82%E7%86%B1</t>
   </si>
   <si>
-    <t>印第安納狂熱</t>
+    <t>印第安纳狂热</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%85%8B%E6%96%AF%E4%BA%BA%E5%A3%BD%E7%90%83%E9%A4%A8</t>
   </si>
   <si>
-    <t>班克斯人壽球館</t>
+    <t>班克斯人寿球馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%87%AA%E7%94%B1%E4%BA%BA</t>
   </si>
   <si>
-    <t>紐約自由人</t>
+    <t>纽约自由人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E8%BF%AA%E9%80%8A%E5%B9%BF%E5%9C%BA%E8%8A%B1%E5%9B%AD</t>
@@ -215,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E8%A8%8A%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>威訊中心</t>
+    <t>威讯中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF%E9%A3%9B%E9%A6%AC</t>
   </si>
   <si>
-    <t>達拉斯飛馬</t>
+    <t>达拉斯飞马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%8F%B0%E6%99%AE%E6%96%AF%E4%B8%AD%E5%BF%83</t>
@@ -233,25 +233,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B1%B1%E8%B2%93</t>
   </si>
   <si>
-    <t>明尼蘇達山貓</t>
+    <t>明尼苏达山猫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E9%9D%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>標靶中心</t>
+    <t>标靶中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%87%91%E6%96%AF%E8%BF%AA%E5%85%8B%E5%BA%A6%E5%81%87%E9%85%92%E5%BA%97%E7%90%83%E9%A4%A8</t>
   </si>
   <si>
-    <t>托金斯迪克度假酒店球館</t>
+    <t>托金斯迪克度假酒店球馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%89%E6%9D%B1%E5%B0%BC%E5%A5%A7%E9%8A%80%E6%98%9F</t>
   </si>
   <si>
-    <t>聖安東尼奧銀星</t>
+    <t>圣安东尼奥银星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AT%26T%E4%B8%AD%E5%BF%83</t>
@@ -263,19 +263,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9%E8%9E%AB%E9%87%9D</t>
   </si>
   <si>
-    <t>夏洛特螫針</t>
+    <t>夏洛特螫针</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6%E5%A5%B3%E7%9A%87</t>
   </si>
   <si>
-    <t>沙加緬度女皇</t>
+    <t>沙加缅度女皇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E7%88%BE%E6%B2%99%E9%9C%87%E5%8B%95</t>
   </si>
   <si>
-    <t>土爾沙震動</t>
+    <t>土尔沙震动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Val_Ackerman</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>美國廣播公司</t>
+    <t>美国广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ESPN</t>
@@ -323,13 +323,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E9%9F%B3%E6%A9%9F</t>
   </si>
   <si>
-    <t>收音機</t>
+    <t>收音机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E5%AE%89%E9%82%A3%E7%8B%82%E7%86%B1</t>
   </si>
   <si>
-    <t>印地安那狂熱</t>
+    <t>印地安那狂热</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/WNBA_Finals_MVP_Award</t>
@@ -389,27 +389,21 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%B1%83%E7%90%83%E8%81%AF%E5%90%88%E6%9C%83</t>
   </si>
   <si>
-    <t>國際籃球聯合會</t>
+    <t>国际篮球联合会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WNBA%E7%B8%BD%E6%B1%BA%E8%B3%BD</t>
   </si>
   <si>
-    <t>WNBA總決賽</t>
+    <t>WNBA总决赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%AE%E7%90%83</t>
   </si>
   <si>
-    <t>篮球</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%AF%AE%E7%90%83%E8%81%94%E5%90%88%E4%BC%9A</t>
   </si>
   <si>
-    <t>国际篮球联合会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E7%AF%AE%E7%90%83%E5%8D%8F%E4%BC%9A</t>
   </si>
   <si>
@@ -425,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E7%B1%83%E7%90%83%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>亞洲籃球總會</t>
+    <t>亚洲篮球总会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A5%B3%E5%AD%90%E7%AF%AE%E7%90%83%E8%81%94%E8%B5%9B</t>
@@ -437,25 +431,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%B1%83%E7%90%83%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>香港籃球聯賽</t>
+    <t>香港篮球联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%A5%B3%E5%AD%90%E7%B1%83%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>日本女子籃球聯盟</t>
+    <t>日本女子篮球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E5%A5%B3%E5%AD%90%E7%B1%83%E7%90%83%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>韓國女子籃球聯賽</t>
+    <t>韩国女子篮球联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%AD%90%E8%B6%85%E7%B4%9A%E7%B1%83%E7%90%83%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>女子超級籃球聯賽</t>
+    <t>女子超级篮球联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%AF%AE%E7%90%83%E5%8D%8F%E4%BC%9A</t>
@@ -473,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2770,7 +2764,7 @@
         <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="G67" t="n">
         <v>8</v>
@@ -2796,10 +2790,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2825,10 +2819,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -2854,10 +2848,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -2883,10 +2877,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2912,10 +2906,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2941,10 +2935,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -2970,10 +2964,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -2999,10 +2993,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3028,10 +3022,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3057,10 +3051,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -3086,10 +3080,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3115,10 +3109,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F79" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3144,10 +3138,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -3173,10 +3167,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F81" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3202,10 +3196,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
